--- a/Grout Stats/CI-PRO-001_REG-001 ROTURA DE GROUT 006.xlsx
+++ b/Grout Stats/CI-PRO-001_REG-001 ROTURA DE GROUT 006.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Powerchina\Tecnopilotes\Registros de Calidad\06 AG-09 (30-01-26)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA96B85-7AC7-4631-8167-EB7D4FDC3171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E575967A-8A81-4A2D-B505-72D1B3994A9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="46">
   <si>
     <t xml:space="preserve"> 
 </t>
@@ -160,9 +160,6 @@
 </t>
   </si>
   <si>
-    <t>Aerogenerador #08</t>
-  </si>
-  <si>
     <t>DISEÑO, PROVISION, TRANSPORTE, MONTAJE, INSTALACION, PRUEBAS Y PUESTA EN MARCHA DE AEROGENERADORES PARA EL PROYECTO PARQUE EOLICO WARNES II - SANTA CRUZ</t>
   </si>
   <si>
@@ -215,6 +212,27 @@
   </si>
   <si>
     <t>TE-0131</t>
+  </si>
+  <si>
+    <t>Sikagrout 9401</t>
+  </si>
+  <si>
+    <t>Sikagrout 9402</t>
+  </si>
+  <si>
+    <t>Sikagrout 9403</t>
+  </si>
+  <si>
+    <t>TE-0132</t>
+  </si>
+  <si>
+    <t>TE-0133</t>
+  </si>
+  <si>
+    <t>TE-0135</t>
+  </si>
+  <si>
+    <t>TE-0136</t>
   </si>
 </sst>
 </file>
@@ -974,6 +992,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="7" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="distributed"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="distributed"/>
     </xf>
@@ -1141,9 +1162,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="distributed"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1733,8 +1751,8 @@
   </sheetPr>
   <dimension ref="A1:T29"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" view="pageBreakPreview" topLeftCell="D4" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="49" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+    <sheetView tabSelected="1" showRuler="0" view="pageBreakPreview" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="49" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="13.8"/>
@@ -1758,178 +1776,178 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="24.75" customHeight="1">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="82" t="s">
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="91" t="s">
-        <v>33</v>
-      </c>
-      <c r="O1" s="92"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" s="93"/>
     </row>
     <row r="2" spans="1:20" ht="28.5" customHeight="1">
-      <c r="A2" s="64"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="87"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="94"/>
+      <c r="A2" s="65"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="94"/>
+      <c r="O2" s="95"/>
     </row>
     <row r="3" spans="1:20" ht="43.5" customHeight="1">
-      <c r="A3" s="64"/>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="90"/>
-      <c r="N3" s="93"/>
-      <c r="O3" s="94"/>
+      <c r="A3" s="65"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="94"/>
+      <c r="O3" s="95"/>
     </row>
     <row r="4" spans="1:20" ht="35.25" customHeight="1">
-      <c r="A4" s="95" t="s">
+      <c r="A4" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="96"/>
-      <c r="C4" s="97" t="s">
+      <c r="B4" s="97"/>
+      <c r="C4" s="98" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+      <c r="N4" s="99"/>
+      <c r="O4" s="100"/>
+    </row>
+    <row r="5" spans="1:20" ht="34.5" customHeight="1" thickBot="1">
+      <c r="A5" s="101" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="102"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="78"/>
+      <c r="K5" s="78"/>
+      <c r="L5" s="79"/>
+      <c r="M5" s="80" t="s">
+        <v>9</v>
+      </c>
+      <c r="N5" s="81"/>
+      <c r="O5" s="82"/>
+    </row>
+    <row r="6" spans="1:20" ht="28.5" customHeight="1">
+      <c r="A6" s="75" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="75" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="103" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="104"/>
+      <c r="E6" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="75" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="75" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="75" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="75" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="75" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="M6" s="75" t="s">
+        <v>21</v>
+      </c>
+      <c r="N6" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="O6" s="75" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="36.75" customHeight="1" thickBot="1">
+      <c r="A7" s="76"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
+      <c r="L7" s="76"/>
+      <c r="M7" s="76"/>
+      <c r="N7" s="76"/>
+      <c r="O7" s="76"/>
+      <c r="Q7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="98"/>
-      <c r="J4" s="98"/>
-      <c r="K4" s="98"/>
-      <c r="L4" s="98"/>
-      <c r="M4" s="98"/>
-      <c r="N4" s="98"/>
-      <c r="O4" s="99"/>
-    </row>
-    <row r="5" spans="1:20" ht="34.5" customHeight="1" thickBot="1">
-      <c r="A5" s="100" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="101"/>
-      <c r="C5" s="101"/>
-      <c r="D5" s="101"/>
-      <c r="E5" s="101"/>
-      <c r="F5" s="76" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77"/>
-      <c r="L5" s="78"/>
-      <c r="M5" s="79" t="s">
-        <v>9</v>
-      </c>
-      <c r="N5" s="80"/>
-      <c r="O5" s="81"/>
-    </row>
-    <row r="6" spans="1:20" ht="28.5" customHeight="1">
-      <c r="A6" s="74" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="74" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="102" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="103"/>
-      <c r="E6" s="74" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="74" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="74" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="74" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" s="74" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" s="74" t="s">
-        <v>20</v>
-      </c>
-      <c r="L6" s="74" t="s">
-        <v>16</v>
-      </c>
-      <c r="M6" s="74" t="s">
-        <v>21</v>
-      </c>
-      <c r="N6" s="74" t="s">
-        <v>22</v>
-      </c>
-      <c r="O6" s="74" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="36.75" customHeight="1" thickBot="1">
-      <c r="A7" s="75"/>
-      <c r="B7" s="75"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="75"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="75"/>
-      <c r="K7" s="75"/>
-      <c r="L7" s="75"/>
-      <c r="M7" s="75"/>
-      <c r="N7" s="75"/>
-      <c r="O7" s="75"/>
-      <c r="Q7" s="5" t="s">
+      <c r="R7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="R7" s="5" t="s">
+      <c r="S7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="S7" s="5" t="s">
+      <c r="T7" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="T7" s="5" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="39.75" customHeight="1">
@@ -1937,12 +1955,12 @@
         <v>1</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="51"/>
+      <c r="C8" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="52"/>
       <c r="E8" s="24" t="s">
         <v>17</v>
       </c>
@@ -2001,12 +2019,12 @@
         <v>2</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="51"/>
+        <v>35</v>
+      </c>
+      <c r="C9" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="52"/>
       <c r="E9" s="24" t="s">
         <v>17</v>
       </c>
@@ -2017,7 +2035,7 @@
         <v>46055</v>
       </c>
       <c r="H9" s="26">
-        <f t="shared" ref="H9:H21" si="0">+G9-F9</f>
+        <f t="shared" ref="H9:H16" si="0">+G9-F9</f>
         <v>3</v>
       </c>
       <c r="I9" s="24">
@@ -2036,11 +2054,11 @@
         <v>191.7</v>
       </c>
       <c r="N9" s="42">
-        <f t="shared" ref="N9:N21" si="1">+(M9*1000)/(I9*J9)</f>
+        <f t="shared" ref="N9:N13" si="1">+(M9*1000)/(I9*J9)</f>
         <v>76.680000000000007</v>
       </c>
       <c r="O9" s="45">
-        <f t="shared" ref="O9:O21" si="2">+N9/100</f>
+        <f t="shared" ref="O9:O13" si="2">+N9/100</f>
         <v>0.76680000000000004</v>
       </c>
     </row>
@@ -2049,12 +2067,12 @@
         <v>3</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="51"/>
+        <v>36</v>
+      </c>
+      <c r="C10" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="52"/>
       <c r="E10" s="24" t="s">
         <v>17</v>
       </c>
@@ -2083,7 +2101,7 @@
       <c r="M10" s="36">
         <v>199.3</v>
       </c>
-      <c r="N10" s="106">
+      <c r="N10" s="50">
         <f t="shared" si="1"/>
         <v>79.72</v>
       </c>
@@ -2097,12 +2115,12 @@
         <v>4</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="51"/>
+        <v>37</v>
+      </c>
+      <c r="C11" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="52"/>
       <c r="E11" s="24" t="s">
         <v>17</v>
       </c>
@@ -2140,16 +2158,16 @@
         <v>0.91280000000000006</v>
       </c>
       <c r="Q11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="R11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="R11" s="5" t="s">
+      <c r="S11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="S11" s="5" t="s">
+      <c r="T11" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="T11" s="5" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="39.75" customHeight="1">
@@ -2157,12 +2175,12 @@
         <v>5</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="51"/>
+        <v>38</v>
+      </c>
+      <c r="C12" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="52"/>
       <c r="E12" s="24" t="s">
         <v>17</v>
       </c>
@@ -2200,107 +2218,233 @@
         <v>0.90439999999999998</v>
       </c>
       <c r="Q12" s="41">
-        <f>+AVERAGE(N12:N16)</f>
-        <v>90.44</v>
-      </c>
-      <c r="R12" s="5" t="e">
-        <f>+STDEVA(N12:N16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S12" s="41" t="e">
+        <f>+AVERAGE(N13:N16)</f>
+        <v>100.06</v>
+      </c>
+      <c r="R12" s="5">
+        <f>+STDEVA(N13:N16)</f>
+        <v>6.6476662571662422</v>
+      </c>
+      <c r="S12" s="41">
         <f>+Q12-R12</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T12" s="41" t="e">
+        <v>93.412333742833766</v>
+      </c>
+      <c r="T12" s="41">
         <f>+Q12+R12</f>
-        <v>#DIV/0!</v>
+        <v>106.70766625716624</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="39.75" customHeight="1">
-      <c r="A13" s="29"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="37"/>
-      <c r="O13" s="46"/>
+      <c r="A13" s="29">
+        <v>6</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="56"/>
+      <c r="E13" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="31">
+        <v>46052</v>
+      </c>
+      <c r="G13" s="32">
+        <v>46059</v>
+      </c>
+      <c r="H13" s="33">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="I13" s="30">
+        <v>50</v>
+      </c>
+      <c r="J13" s="30">
+        <v>50</v>
+      </c>
+      <c r="K13" s="34">
+        <v>50</v>
+      </c>
+      <c r="L13" s="34">
+        <v>331</v>
+      </c>
+      <c r="M13" s="35">
+        <v>260.8</v>
+      </c>
+      <c r="N13" s="37">
+        <f t="shared" si="1"/>
+        <v>104.32</v>
+      </c>
+      <c r="O13" s="46">
+        <f t="shared" si="2"/>
+        <v>1.0431999999999999</v>
+      </c>
     </row>
     <row r="14" spans="1:20" ht="39.75" customHeight="1">
-      <c r="A14" s="29"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="43"/>
-      <c r="O14" s="46"/>
+      <c r="A14" s="29">
+        <v>7</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="56"/>
+      <c r="E14" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="31">
+        <v>46052</v>
+      </c>
+      <c r="G14" s="32">
+        <v>46059</v>
+      </c>
+      <c r="H14" s="33">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="I14" s="30">
+        <v>50</v>
+      </c>
+      <c r="J14" s="30">
+        <v>50</v>
+      </c>
+      <c r="K14" s="34">
+        <v>50</v>
+      </c>
+      <c r="L14" s="34">
+        <v>331</v>
+      </c>
+      <c r="M14" s="35">
+        <v>264.8</v>
+      </c>
+      <c r="N14" s="37">
+        <f t="shared" ref="N14:N16" si="3">+(M14*1000)/(I14*J14)</f>
+        <v>105.92</v>
+      </c>
+      <c r="O14" s="46">
+        <f t="shared" ref="O14:O16" si="4">+N14/100</f>
+        <v>1.0591999999999999</v>
+      </c>
     </row>
     <row r="15" spans="1:20" ht="39.75" customHeight="1">
-      <c r="A15" s="29"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="43"/>
-      <c r="O15" s="46"/>
+      <c r="A15" s="29">
+        <v>8</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="56"/>
+      <c r="E15" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="31">
+        <v>46052</v>
+      </c>
+      <c r="G15" s="32">
+        <v>46059</v>
+      </c>
+      <c r="H15" s="33">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="I15" s="30">
+        <v>50</v>
+      </c>
+      <c r="J15" s="30">
+        <v>50</v>
+      </c>
+      <c r="K15" s="34">
+        <v>50</v>
+      </c>
+      <c r="L15" s="34">
+        <v>325</v>
+      </c>
+      <c r="M15" s="35">
+        <v>247</v>
+      </c>
+      <c r="N15" s="37">
+        <f t="shared" si="3"/>
+        <v>98.8</v>
+      </c>
+      <c r="O15" s="46">
+        <f t="shared" si="4"/>
+        <v>0.98799999999999999</v>
+      </c>
     </row>
     <row r="16" spans="1:20" ht="39.75" customHeight="1">
-      <c r="A16" s="29"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="37"/>
-      <c r="O16" s="46"/>
+      <c r="A16" s="29">
+        <v>9</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="56"/>
+      <c r="E16" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="31">
+        <v>46052</v>
+      </c>
+      <c r="G16" s="32">
+        <v>46059</v>
+      </c>
+      <c r="H16" s="33">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="I16" s="30">
+        <v>50</v>
+      </c>
+      <c r="J16" s="30">
+        <v>50</v>
+      </c>
+      <c r="K16" s="34">
+        <v>50</v>
+      </c>
+      <c r="L16" s="34">
+        <v>321</v>
+      </c>
+      <c r="M16" s="35">
+        <v>228</v>
+      </c>
+      <c r="N16" s="43">
+        <f t="shared" si="3"/>
+        <v>91.2</v>
+      </c>
+      <c r="O16" s="46">
+        <f t="shared" si="4"/>
+        <v>0.91200000000000003</v>
+      </c>
       <c r="Q16" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="R16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="R16" s="5" t="s">
+      <c r="S16" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="S16" s="5" t="s">
+      <c r="T16" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="T16" s="5" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="17" spans="1:20" ht="39.75" customHeight="1">
-      <c r="A17" s="23"/>
+      <c r="A17" s="23">
+        <v>10</v>
+      </c>
       <c r="B17" s="24"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="51"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="52"/>
       <c r="E17" s="24"/>
       <c r="F17" s="25"/>
       <c r="G17" s="38"/>
@@ -2330,10 +2474,12 @@
       </c>
     </row>
     <row r="18" spans="1:20" ht="39.75" customHeight="1">
-      <c r="A18" s="23"/>
+      <c r="A18" s="23">
+        <v>11</v>
+      </c>
       <c r="B18" s="24"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="51"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="52"/>
       <c r="E18" s="24"/>
       <c r="F18" s="25"/>
       <c r="G18" s="38"/>
@@ -2349,8 +2495,8 @@
     <row r="19" spans="1:20" ht="39.75" customHeight="1">
       <c r="A19" s="23"/>
       <c r="B19" s="24"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="51"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="52"/>
       <c r="E19" s="24"/>
       <c r="F19" s="25"/>
       <c r="G19" s="38"/>
@@ -2366,8 +2512,8 @@
     <row r="20" spans="1:20" ht="39.75" customHeight="1">
       <c r="A20" s="23"/>
       <c r="B20" s="24"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="51"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="52"/>
       <c r="E20" s="24"/>
       <c r="F20" s="25"/>
       <c r="G20" s="38"/>
@@ -2383,8 +2529,8 @@
     <row r="21" spans="1:20" ht="39.75" customHeight="1">
       <c r="A21" s="23"/>
       <c r="B21" s="24"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="51"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="52"/>
       <c r="E21" s="24"/>
       <c r="F21" s="25"/>
       <c r="G21" s="38"/>
@@ -2400,8 +2546,8 @@
     <row r="22" spans="1:20" ht="39.75" customHeight="1">
       <c r="A22" s="3"/>
       <c r="B22" s="4"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="53"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="54"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
@@ -2417,8 +2563,8 @@
     <row r="23" spans="1:20" ht="39.75" customHeight="1" thickBot="1">
       <c r="A23" s="3"/>
       <c r="B23" s="4"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="53"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="54"/>
       <c r="E23" s="21"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
@@ -2432,61 +2578,61 @@
       <c r="O23" s="47"/>
     </row>
     <row r="24" spans="1:20" ht="39.75" customHeight="1">
-      <c r="A24" s="66" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24" s="67"/>
-      <c r="C24" s="67"/>
-      <c r="D24" s="67"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="67"/>
-      <c r="J24" s="67"/>
-      <c r="K24" s="67"/>
-      <c r="L24" s="67"/>
-      <c r="M24" s="68"/>
-      <c r="N24" s="68"/>
-      <c r="O24" s="69"/>
+      <c r="A24" s="67" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="68"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="68"/>
+      <c r="I24" s="68"/>
+      <c r="J24" s="68"/>
+      <c r="K24" s="68"/>
+      <c r="L24" s="68"/>
+      <c r="M24" s="69"/>
+      <c r="N24" s="69"/>
+      <c r="O24" s="70"/>
     </row>
     <row r="25" spans="1:20" ht="30" customHeight="1" thickBot="1">
-      <c r="A25" s="70"/>
-      <c r="B25" s="71"/>
-      <c r="C25" s="71"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="71"/>
-      <c r="F25" s="71"/>
-      <c r="G25" s="71"/>
-      <c r="H25" s="71"/>
-      <c r="I25" s="71"/>
-      <c r="J25" s="71"/>
-      <c r="K25" s="71"/>
-      <c r="L25" s="71"/>
-      <c r="M25" s="72"/>
-      <c r="N25" s="72"/>
-      <c r="O25" s="73"/>
+      <c r="A25" s="71"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="72"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="72"/>
+      <c r="J25" s="72"/>
+      <c r="K25" s="72"/>
+      <c r="L25" s="72"/>
+      <c r="M25" s="73"/>
+      <c r="N25" s="73"/>
+      <c r="O25" s="74"/>
     </row>
     <row r="26" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="A26" s="59" t="s">
+      <c r="A26" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="60"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="60"/>
-      <c r="I26" s="61"/>
-      <c r="J26" s="56" t="s">
+      <c r="B26" s="61"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="62"/>
+      <c r="J26" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="K26" s="57"/>
-      <c r="L26" s="57"/>
-      <c r="M26" s="57"/>
-      <c r="N26" s="57"/>
-      <c r="O26" s="58"/>
+      <c r="K26" s="58"/>
+      <c r="L26" s="58"/>
+      <c r="M26" s="58"/>
+      <c r="N26" s="58"/>
+      <c r="O26" s="59"/>
       <c r="P26" s="14"/>
       <c r="Q26" s="14"/>
     </row>
